--- a/output data/Export potential.xlsx
+++ b/output data/Export potential.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\super grid\Data upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\super grid\Data upload\Globalrenewablepotential\output data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746A232F-B0A1-4A03-B92B-698DB4F6294B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F13B7B-F4B1-4D85-96E6-6C836EFC8F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Single double" sheetId="2" r:id="rId1"/>
@@ -4634,29 +4634,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q168"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C163" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="36.42578125" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="36.44140625" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" customWidth="1"/>
+    <col min="12" max="12" width="22.88671875" customWidth="1"/>
     <col min="13" max="13" width="23" customWidth="1"/>
     <col min="14" max="14" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>178</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>166</v>
       </c>
@@ -4734,7 +4734,7 @@
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>157</v>
       </c>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -4860,7 +4860,7 @@
       </c>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -4944,7 +4944,7 @@
       </c>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>138</v>
       </c>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>126</v>
       </c>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -5112,7 +5112,7 @@
       </c>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -5154,7 +5154,7 @@
       </c>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -5238,7 +5238,7 @@
       </c>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -5281,7 +5281,7 @@
       <c r="O15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -5324,7 +5324,7 @@
       <c r="O16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>3948.8464057443557</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>3468.6932564102631</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>3197.9246675040845</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>2662.9104929703394</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>2413.003977327844</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>2197.6610750346877</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>111</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>2060.5672986930022</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>2059.5411152461284</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>2017.2880118186474</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>1970.9701236876078</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>133</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>1946.9949491437642</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>163</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>1946.1159373821304</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>1892.1003005841346</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>132</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>1799.1138911090443</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>107</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>1745.2751578280986</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>1732.8074643228169</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>1714.3190992750724</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>153</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>1622.2856491062748</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>159</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>1524.2878642788951</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>135</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>1368.9257016548531</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>152</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>1241.9441686444902</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>1204.8444809028424</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>1006.7783783262469</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>98</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>966.96556923625269</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>116</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>930.58863818591033</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>110</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>915.74570050169473</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>909.89527498611642</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>887.11121262946574</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>68</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>753.3064855399773</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>729.69562186732242</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>160</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>668.4765833161515</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>162</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>664.97954650897782</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>585.29288413612278</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>146</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>572.31619204156686</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>99</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>529.59904596371052</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>155</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>514.35036985161605</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>165</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>510.95808798121391</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>509.31478298699591</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>164</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>498.70509135320668</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>79</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>493.85564653200601</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>442.08514437173034</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>143</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>425.97396493544744</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>400.46991561345061</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>386.38878961892715</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>136</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>380.38625541526886</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>145</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>364.52753291910295</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>127</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>352.73959033657326</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>151</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>301.69838205588263</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>278.92147080004514</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>45</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>244.93020080050135</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>32</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>236.43260826419555</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>147</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>227.49668657319296</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>158</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>207.86098550240936</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>154</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>201.77239850491682</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>118</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>196.12062679212576</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>100</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>176.14257254417541</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>102</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>175.87874764732592</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>117</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>170.89364432807591</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>26</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>154.77303960433119</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>145.24241721340118</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>123</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>142.33147862841508</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>130.85863248659047</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>115</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>128.99567336093725</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>127.07381073903724</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>117.56099261110367</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>116.86842555779265</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>109</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>114.8541747803455</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>58</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>99.196404733829425</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>105</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>94.588621653421654</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>34</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>92.251775813619446</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>23</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>84.597740100600504</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>161</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>78.616061356676099</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>41</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>76.718927958531381</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>122</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>74.506859502426025</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>64.959236506475264</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>59.955695416058113</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>64</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>59.24323068429419</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>156</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>57.879891015003317</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>69</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>54.835398910474417</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>90</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>51.791862288923198</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>71</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>49.860315759566127</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>108</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>46.230132682350863</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>20</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>44.793372402646611</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>128</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>40.089333866063427</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>53</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>40.004370852786948</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>63</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>34.85306492568278</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>149</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>33.625509708100701</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>57</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>32.904662285047188</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>80</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>30.696038064305856</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>86</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>25.403351908600381</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>137</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>24.898783688128574</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>62</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>23.512425617814976</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>39</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>17.168741001211902</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>60</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>16.283448178947971</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>114</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>15.479785361593992</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>56</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>15.257876128479056</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>13.143473607741733</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>81</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>9.3892387876632366</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>95</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>5.0725347180758753</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>16</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>2.6374352935291792</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>61</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>1.7592986986435801</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>1.4099166856569825</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>1.0937997473835188</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>40</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>0.45171754381129592</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>22</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>0.12030161461141042</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>31</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>-0.10694685269016739</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>125</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>-0.82141094774404599</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>33</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>-1.3061230491101805</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>83</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>-2.0661604553376147</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>1</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>-4.6057131284338633</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>-4.8987993247884276</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>88</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>-5.837015422636143</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>59</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>-8.8884704900516542</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>-10.159315111110038</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>-10.90587260271136</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>51</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>-16.494726691264763</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>43</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>-16.645347657070165</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>142</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>-22.545642703222661</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>130</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>-23.491261036563987</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>52</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>-24.541856201625642</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>97</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>-24.890653914788551</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>46</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>-28.894292921765992</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>84</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>-47.334332457825525</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>148</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>-48.088221627750556</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>-53.281725694089644</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>139</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>-60.283885628465178</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>72</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>-63.768815349439201</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>12</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>-72.323740576502416</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>35</v>
       </c>
@@ -8678,7 +8678,7 @@
         <v>-74.129833993598893</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>14</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>-79.661060244863307</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>50</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>-98.503163839469067</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>112</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>-104.96165279872082</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>77</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>-114.40272232406485</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>141</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>-126.76581309724357</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>131</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>-131.71903574738701</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>120</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>-204.51867427968432</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>44</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>-215.94827101626524</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>19</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>-218.10089844878078</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>87</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>-248.89711063495648</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>150</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>-291.71082643766562</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>82</v>
       </c>
@@ -8990,7 +8990,7 @@
         <v>-293.68466404920332</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>54</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>-296.31605087908679</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>48</v>
       </c>
@@ -9042,7 +9042,7 @@
         <v>-367.85571016236889</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>-386.80424366631593</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>103</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>-458.33366283938619</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>91</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>-459.31908010095015</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>121</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>-486.43389624434775</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>70</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>-765.33600197369253</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>78</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>-959.7938021310157</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>144</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>-1138.4608536407529</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>134</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>-2435.1663574601962</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>73</v>
       </c>
@@ -9295,27 +9295,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:Z168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView topLeftCell="C106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C168" sqref="A168:XFD168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" style="2" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
     <col min="11" max="11" width="23" style="2" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" customWidth="1"/>
     <col min="16" max="16" width="19" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" customWidth="1"/>
+    <col min="17" max="17" width="17.88671875" customWidth="1"/>
+    <col min="18" max="18" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>173</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>166</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>28.270788927841739</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>157</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>27.545608154803713</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>126</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>19.064371757762935</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>29</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>10.996477020359412</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>94</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>16.366590467154424</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>67</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>8.9715667918601714</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>198.85538215760462</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>-3.7062388259731431</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>85</v>
       </c>
@@ -9615,7 +9615,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>116</v>
       </c>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>75</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>8971.5667918601721</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>98</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>8188.8403137912164</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>111</v>
       </c>
@@ -9696,7 +9696,7 @@
         <v>7879.837448094504</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>93</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>7228.03066035751</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>17</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>6760.2981344394975</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>106</v>
       </c>
@@ -9756,7 +9756,7 @@
         <v>5186.0450957719931</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>136</v>
       </c>
@@ -9777,7 +9777,7 @@
       </c>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>30</v>
       </c>
@@ -9798,7 +9798,7 @@
       </c>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>110</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>4298.7478445170509</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>28</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>4281.0046304456182</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>2</v>
       </c>
@@ -9858,7 +9858,7 @@
         <v>4054.8241711907381</v>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>127</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>3814.1078636068964</v>
       </c>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>107</v>
       </c>
@@ -9898,7 +9898,7 @@
         <v>3672.8867532581244</v>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>159</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>3487.5549081471977</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>147</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>3009.6485425783649</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>21</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>2992.7372600784502</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>76</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>2868.8374355513561</v>
       </c>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>74</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>2736.2254417843023</v>
       </c>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>13</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>2699.5219373257737</v>
       </c>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>102</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>2636.5805408318229</v>
       </c>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>32</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>2514.7655676283525</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>42</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>2467.3351484553218</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>79</v>
       </c>
@@ -10098,7 +10098,7 @@
         <v>2407.5592537945786</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>24</v>
       </c>
@@ -10118,7 +10118,7 @@
         <v>2340.3876349196448</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>162</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>2338.350607986511</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>101</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>2313.2621303551437</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>5</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>2281.1485811737521</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>119</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>2147.5293468737473</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>20</v>
       </c>
@@ -10218,7 +10218,7 @@
         <v>1955.1160877576335</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>113</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>1850.7234965084874</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>148</v>
       </c>
@@ -10258,7 +10258,7 @@
         <v>1822.3071739529225</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>57</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v>1713.174899107225</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>145</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>1682.172443244644</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>40</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>1612.1294499423971</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>146</v>
       </c>
@@ -10338,7 +10338,7 @@
         <v>1606.6405953232575</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>80</v>
       </c>
@@ -10358,7 +10358,7 @@
         <v>1408.1949718692317</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>35</v>
       </c>
@@ -10378,7 +10378,7 @@
         <v>1178.9818414238248</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>8</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>1093.1077052143405</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>142</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>1070.5352228931897</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>115</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>994.58587475820264</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>112</v>
       </c>
@@ -10458,7 +10458,7 @@
         <v>966.22949278457747</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>53</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>955.26774322748281</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>14</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>895.53988394316639</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>59</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>859.76931847993581</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>39</v>
       </c>
@@ -10538,7 +10538,7 @@
         <v>796.75193828344038</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>26</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>780.78236126476281</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>129</v>
       </c>
@@ -10578,7 +10578,7 @@
         <v>779.15105618794098</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>27</v>
       </c>
@@ -10598,7 +10598,7 @@
         <v>727.78470015784558</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>22</v>
       </c>
@@ -10618,7 +10618,7 @@
         <v>717.13484812063518</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>52</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>714.42694200914491</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>132</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>685.83608207402642</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>84</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>661.47757439938948</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>50</v>
       </c>
@@ -10698,7 +10698,7 @@
         <v>654.97426202674308</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>45</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>621.7117645327794</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>135</v>
       </c>
@@ -10738,7 +10738,7 @@
         <v>590.59145487767751</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>12</v>
       </c>
@@ -10758,7 +10758,7 @@
         <v>577.06638217550551</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>120</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>530.96302446177697</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>60</v>
       </c>
@@ -10798,7 +10798,7 @@
         <v>517.58673927476173</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>83</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>490.31259793996134</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>62</v>
       </c>
@@ -10838,7 +10838,7 @@
         <v>479.26858485537065</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>125</v>
       </c>
@@ -10858,7 +10858,7 @@
         <v>470.6322759063018</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>61</v>
       </c>
@@ -10878,7 +10878,7 @@
         <v>454.6920987961787</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>154</v>
       </c>
@@ -10898,7 +10898,7 @@
         <v>431.41890116312408</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>97</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>429.78521191498771</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>58</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>405.7729073417612</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>149</v>
       </c>
@@ -10958,7 +10958,7 @@
         <v>373.2480622377127</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>122</v>
       </c>
@@ -10978,7 +10978,7 @@
         <v>341.76252670401811</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>139</v>
       </c>
@@ -10998,7 +10998,7 @@
         <v>321.65649453440869</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>90</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>318.89787123504283</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>140</v>
       </c>
@@ -11038,7 +11038,7 @@
         <v>312.18702032431793</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>44</v>
       </c>
@@ -11058,7 +11058,7 @@
         <v>294.76229416498916</v>
       </c>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>89</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>269.65122658330188</v>
       </c>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>19</v>
       </c>
@@ -11098,7 +11098,7 @@
         <v>264.70003540594104</v>
       </c>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>114</v>
       </c>
@@ -11118,7 +11118,7 @@
         <v>258.2148804891508</v>
       </c>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>77</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>256.39375478506383</v>
       </c>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>92</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>251.57323061049033</v>
       </c>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>81</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>249.32301332153077</v>
       </c>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>1</v>
       </c>
@@ -11198,7 +11198,7 @@
         <v>243.08232399708166</v>
       </c>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>95</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>238.19105687646672</v>
       </c>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>51</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>236.9431928507297</v>
       </c>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>88</v>
       </c>
@@ -11258,7 +11258,7 @@
         <v>226.37656563760333</v>
       </c>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>72</v>
       </c>
@@ -11278,7 +11278,7 @@
         <v>210.07487182818784</v>
       </c>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>0</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>208.51075494219822</v>
       </c>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>105</v>
       </c>
@@ -11318,7 +11318,7 @@
         <v>204.23701209552559</v>
       </c>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>87</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>198.85503597761962</v>
       </c>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>64</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>187.04721067617515</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>16</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>185.15983847190697</v>
       </c>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>23</v>
       </c>
@@ -11398,7 +11398,7 @@
         <v>174.38181348117195</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>46</v>
       </c>
@@ -11418,7 +11418,7 @@
         <v>170.30887945770522</v>
       </c>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>96</v>
       </c>
@@ -11438,7 +11438,7 @@
         <v>159.34413819026088</v>
       </c>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>43</v>
       </c>
@@ -11458,7 +11458,7 @@
         <v>155.95023432465084</v>
       </c>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>163</v>
       </c>
@@ -11478,7 +11478,7 @@
         <v>134.61288442106354</v>
       </c>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>86</v>
       </c>
@@ -11498,7 +11498,7 @@
         <v>131.90601766267164</v>
       </c>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>131</v>
       </c>
@@ -11518,7 +11518,7 @@
         <v>129.45490543313335</v>
       </c>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>15</v>
       </c>
@@ -11538,7 +11538,7 @@
         <v>125.15765518259872</v>
       </c>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>33</v>
       </c>
@@ -11558,7 +11558,7 @@
         <v>123.05390453656965</v>
       </c>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>31</v>
       </c>
@@ -11578,7 +11578,7 @@
         <v>113.15940925853789</v>
       </c>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>37</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>108.61261072880009</v>
       </c>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>150</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>108.44172343268198</v>
       </c>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>108</v>
       </c>
@@ -11638,7 +11638,7 @@
         <v>105.94667186701727</v>
       </c>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>153</v>
       </c>
@@ -11658,7 +11658,7 @@
         <v>101.63695937885201</v>
       </c>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>137</v>
       </c>
@@ -11678,7 +11678,7 @@
         <v>99.95966242934611</v>
       </c>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>158</v>
       </c>
@@ -11698,7 +11698,7 @@
         <v>97.765648857845392</v>
       </c>
     </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>47</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>97.488905810794094</v>
       </c>
     </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>165</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>89.397744714012831</v>
       </c>
     </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>3</v>
       </c>
@@ -11758,7 +11758,7 @@
         <v>88.613663332739335</v>
       </c>
     </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>164</v>
       </c>
@@ -11778,7 +11778,7 @@
         <v>84.092392628060253</v>
       </c>
     </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>104</v>
       </c>
@@ -11798,7 +11798,7 @@
         <v>84.07451217746835</v>
       </c>
     </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>100</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>80.412136695720548</v>
       </c>
     </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>69</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>78.641397904900074</v>
       </c>
     </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>55</v>
       </c>
@@ -11858,7 +11858,7 @@
         <v>78.431225217184448</v>
       </c>
     </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>99</v>
       </c>
@@ -11878,7 +11878,7 @@
         <v>72.117998820558412</v>
       </c>
     </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>130</v>
       </c>
@@ -11898,7 +11898,7 @@
         <v>71.970455495184936</v>
       </c>
     </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>128</v>
       </c>
@@ -11918,7 +11918,7 @@
         <v>71.157321927052891</v>
       </c>
     </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>138</v>
       </c>
@@ -11938,7 +11938,7 @@
         <v>71.150509359379157</v>
       </c>
     </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>38</v>
       </c>
@@ -11958,7 +11958,7 @@
         <v>68.002091952692538</v>
       </c>
     </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>7</v>
       </c>
@@ -11978,7 +11978,7 @@
         <v>67.924463873225648</v>
       </c>
     </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>6</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>65.663912406462998</v>
       </c>
     </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>34</v>
       </c>
@@ -12018,7 +12018,7 @@
         <v>61.823607476189991</v>
       </c>
     </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>109</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>56.790889913120843</v>
       </c>
     </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>10</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>56.130857786911612</v>
       </c>
     </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>41</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>55.116917201495362</v>
       </c>
     </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>143</v>
       </c>
@@ -12098,7 +12098,7 @@
         <v>46.310543371018788</v>
       </c>
     </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>82</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>43.277892197502119</v>
       </c>
     </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>56</v>
       </c>
@@ -12138,7 +12138,7 @@
         <v>42.103719632449128</v>
       </c>
     </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>63</v>
       </c>
@@ -12158,7 +12158,7 @@
         <v>41.824843693007075</v>
       </c>
     </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>151</v>
       </c>
@@ -12178,7 +12178,7 @@
         <v>34.650508994562898</v>
       </c>
     </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>123</v>
       </c>
@@ -12198,7 +12198,7 @@
         <v>32.640250001028775</v>
       </c>
     </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>117</v>
       </c>
@@ -12218,7 +12218,7 @@
         <v>27.413828062725297</v>
       </c>
     </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>36</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>26.051163339808589</v>
       </c>
     </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>48</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v>18.785128343647965</v>
       </c>
     </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>121</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>13.163827303950676</v>
       </c>
     </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>141</v>
       </c>
@@ -12298,7 +12298,7 @@
         <v>10.123032380752207</v>
       </c>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>9</v>
       </c>
@@ -12318,7 +12318,7 @@
         <v>8.6139513205151044</v>
       </c>
     </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>70</v>
       </c>
@@ -12338,7 +12338,7 @@
         <v>8.3423504179986629</v>
       </c>
     </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>11</v>
       </c>
@@ -12358,7 +12358,7 @@
         <v>8.1522355382717819</v>
       </c>
     </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>103</v>
       </c>
@@ -12378,7 +12378,7 @@
         <v>5.0015601335778941</v>
       </c>
     </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>66</v>
       </c>
@@ -12398,7 +12398,7 @@
         <v>4.5598119173695277</v>
       </c>
     </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
         <v>78</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>2.4974305932563303</v>
       </c>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
         <v>160</v>
       </c>
@@ -12438,7 +12438,7 @@
         <v>2.4620415087951826</v>
       </c>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>155</v>
       </c>
@@ -12458,7 +12458,7 @@
         <v>-0.32923707930748708</v>
       </c>
     </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>91</v>
       </c>
@@ -12478,7 +12478,7 @@
         <v>-1.238141241309239</v>
       </c>
     </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>49</v>
       </c>
@@ -12498,7 +12498,7 @@
         <v>-4.6024423894054518</v>
       </c>
     </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>118</v>
       </c>
@@ -12518,7 +12518,7 @@
         <v>-6.5674509905132297</v>
       </c>
     </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>161</v>
       </c>
@@ -12538,7 +12538,7 @@
         <v>-9.0545130536651666</v>
       </c>
     </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>71</v>
       </c>
@@ -12558,7 +12558,7 @@
         <v>-19.878866982590203</v>
       </c>
     </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>68</v>
       </c>
@@ -12578,7 +12578,7 @@
         <v>-58.834844192786839</v>
       </c>
     </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>4</v>
       </c>
@@ -12598,7 +12598,7 @@
         <v>-64.123352121031488</v>
       </c>
     </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>152</v>
       </c>
@@ -12618,7 +12618,7 @@
         <v>-65.743525581370761</v>
       </c>
     </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>156</v>
       </c>
@@ -12638,7 +12638,7 @@
         <v>-111.19976048883183</v>
       </c>
     </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>65</v>
       </c>
@@ -12658,7 +12658,7 @@
         <v>-111.26513211021893</v>
       </c>
     </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
         <v>144</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>-143.45777017024511</v>
       </c>
     </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>54</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>-183.03377723825363</v>
       </c>
     </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>133</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>-183.57060153885325</v>
       </c>
     </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
         <v>124</v>
       </c>
@@ -12738,7 +12738,7 @@
         <v>-537.79336838718496</v>
       </c>
     </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>134</v>
       </c>
@@ -12758,7 +12758,7 @@
         <v>-1088.5140836047178</v>
       </c>
     </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>73</v>
       </c>
